--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(D)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(D).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(D)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(D).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dab
-Daboecia
-Daboecia cantabrica
-Dac
-Dactylis - fam. Graminées ou Poacées
+          <t>Dab</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Daboecia
+Daboecia cantabrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dac</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dactylis - fam. Graminées ou Poacées
 Dactylis glomerata - Dactyle pelotonné
 Dactylorhiza - fam. Orchidaceae
 Dactylorhiza fuchsii - Orchis de Fuchs
@@ -526,95 +577,508 @@
 Dactylorhiza maculata subsp. maculata - Orchis tacheté
 Dactylorhiza occitanica - Dactylorhiza d'Occitanie
 Dactylorhiza praetermissa - Orchis négligé
-Dactylorhiza sambucina - Orchis sureau
-Dah
-Dahlia
+Dactylorhiza sambucina - Orchis sureau</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dah</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dahlia
 Dahlia arborea
 Dahlia variabilis
-Dahlstedtia
-Dal
-Dalbergia
+Dahlstedtia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dalbergia
 Dalidarba
-Dalidarba repens - Dalidarbe rampante
-Dan
-Danae
+Dalidarba repens - Dalidarbe rampante</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Danae
 Danae racemosa
 Danthonia
 Danthonia allenii - Danthonie d'Allen
 Danthonia compressa - Danthonie comprimée
 Danthonia intermedia - Danthonie intermédiaire
-Danthonia spicata - Danthonie à épi
-Dap
-Daphne - fam. Thyméléacées
+Danthonia spicata - Danthonie à épi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dap</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Daphne - fam. Thyméléacées
 Daphne cneorum - Daphné camélé
 Daphne gnidium - Daphné garou ou garou
 Daphne laureola - Lauréole ou Daphné à feuilles de laurier
 Daphne mezereum - Bois joli
-Daphne odora - Daphné odorant
-Das
-Dasylirion
-Dasylirion	glaucophyllum
-Dat
-Datura - fam. Solanacées
+Daphne odora - Daphné odorant</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Das</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dasylirion
+Dasylirion	glaucophyllum</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Datura - fam. Solanacées
 Datura fastuosa Violacea - Datura à fleurs violettes
 Datura stramonium - Datura stramoine ou « Pomme épineuse » ou « Herbe du diable »
-Datura suaveolens ou Datura arborea ou Datura mollis ou Brugmansia versicolor - Datura rose ou « Datura de Madère » ou « Arbre datura »
-Dau
-Daucus - fam. Ombellifères
-Daucus carota - Carotte
-Dav
-Davidia
+Datura suaveolens ou Datura arborea ou Datura mollis ou Brugmansia versicolor - Datura rose ou « Datura de Madère » ou « Arbre datura »</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dau</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Daucus - fam. Ombellifères
+Daucus carota - Carotte</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Davidia
 Davidia involucrata
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>De</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dec
-Decaisnea
-Decaisnea fargesii
-Deg
-Deguelia
-Dei
-Deinanthe - Hydrangeacées
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Decaisnea
+Decaisnea fargesii</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>De</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Deg</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Deguelia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>De</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dei</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Deinanthe - Hydrangeacées
 Deinanthe caerula - Deinanthe
-Deinanthe bifida
-Del
-Delonix
+Deinanthe bifida</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>De</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Del</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Delonix
 Delphinium - Renonculacées
 Delphinium ajacis - Pied d'alouette des jardins
 Delphinium consolida - Pied d'alouette des blés
 Delphinium fissum - Dauphinelle fendue
 Delphinium grandiflorum - Pied d'alouette de Chine
 Delphinium hybride - Pied d'alouette vivaces hybrides
-Delphinium pacific - Pied d'alouette Pacific
-Den
-Dendrathema - fam. Astéracées
+Delphinium pacific - Pied d'alouette Pacific</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>De</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Den</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Dendrathema - fam. Astéracées
 Dendrathema grandiflora  ou Chrysanthenum morifolium - Chrysanthème à grandes fleurs
 Dendrobium - fam. Orchidacées
 Dendrobium cultivars - Dendrobe
@@ -627,14 +1091,116 @@
 Dennstaedtia bernhardi - Dennstaedtia de Bernhard
 Dennstaedtia punctilobula - Dennstaedtia à loules ponctués ou Fougère à odeur de foin
 Dentaria - fam. Brassicacées
-Dentaria diphylla - Carcajou
-Dep
-Deparia
-Deparia acrostichoides - Athyrie fausse-thélyptère
-Der
-Derris - fam. Légumineuses
-Des
-Deschampsia - Poacées
+Dentaria diphylla - Carcajou</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>De</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dep</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Deparia
+Deparia acrostichoides - Athyrie fausse-thélyptère</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>De</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Der</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Derris - fam. Légumineuses</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>De</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Des</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Deschampsia - Poacées
 Deschampsia alpina - Deschampsie alpine
 Deschampsia atropurpurea - Deschampsie noire-pourprée
 Deschampsia cespitosa - Deschampsie cespiteuse
@@ -646,9 +1212,43 @@
 Desmanthus
 Desmodium - fam. Légumineuses
 Desmodium canadense - Desmodie du Canada
-Desmodium glutinosum - Desmodie glutineuse
-Deu
-Deutzia
+Desmodium glutinosum - Desmodie glutineuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>De</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Deu</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deutzia
 Deutzia floribunda
 Deutzia gracilis - Deutzie gracile
 Deutzia lemoinei - Deutzie de Lemoine
@@ -659,34 +1259,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Di</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dia
-Dialium
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dia</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Dialium
 Dianthus - fam. Caryophyllaceae
 Dianthus alpinus - Œillet des Alpes
 Dianthus armeria - Œillet arméria
@@ -698,9 +1303,43 @@
 Dianthus hyssopifolius
 Dianthus hyssopifolius subsp. hyssopifolius - Œillet de Montpellier
 Dianthus hyssopifolius subsp. gallicus - Œillet de France ou Œillet des dunes
-Dianthus plumarius - Œillet mignardise
-Dic
-Dicentra - fam. Fumariacées
+Dianthus plumarius - Œillet mignardise</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dic</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Dicentra - fam. Fumariacées
 Dicentra cucullaria ou Dicentra à capuchon
 Dicentra spectabilis ou Dielytra spectabilis - Dicentra Cœur de Marie ou « Cœur de Jeannette »
 Dicentra spectabilis alba - Dicentra à fleurs blanches
@@ -711,42 +1350,281 @@
 Dicranopteris linearis
 Dicranum
 Dicranum viride - Dicrane vert
-Dicymbe
-Die
-Diervilla
+Dicymbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Die</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Diervilla
 Diervilla lonicera
-Diervilla × splendens
-Dif
-Diffenbachia - fam. Aroideae
+Diervilla × splendens</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Dif</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diffenbachia - fam. Aroideae
 Diffenbachia picta
 Le DIFFENBACHIA est un membre tropical de la famille des Aracées. C'est une plante de maison ornementale populaire en Nouvelle-Écosse, parce qu'elle tolère un éclairage faible et la chaleur sèche. Comme les autres gouets, le DIFFENBACHIA contient des cristaux d'oxalate. Le fait de manger les feuilles peut causer des brûlures, des enflures et des crises d'étouffements. Heureusement, la manipulation de la plante est tout à fait inoffensive, à moins d'échapper le pot sur votre pied ou sur le chat.
-Dig
-Digitalis - fam. Scrophulariacées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Dig</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Digitalis - fam. Scrophulariacées
 Digitalis grandiflora - Digitale à grandes fleurs
 Digitalis lutea - Digitale jaune
 Digitalis purpurea - Digitale pourpre ou « Digitale commune »
 Digitaria - fam. Graminées ou Poacées
 Digitaria ischaemum - Digitaire astringente
-Digitaria sanguinalis -  Digitaire sanguine
-Dim
-Dimorphandra
+Digitaria sanguinalis -  Digitaire sanguine</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Dimorphandra
 Dimorphotheca - fam. Composées
 Dimorphotheca aurantica
 Dimorphoteca ecklonis
 Dimorphotheca pluvialis - Dimorphotheca pluvial ou « Souci pluvial »
-Dimorphotheca sinuata
-Din
-Dinizia
-Dio
-Dioclea
+Dimorphotheca sinuata</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Din</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Dinizia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Dio</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Dioclea
 Dioscorea - fam. Dioscoréacées
 Dioscorea batatas - Igname de Chine
 Diospyros
 Diospyros kaki
 Diospyros lotus
-Diospyros virginiana
-Dip
-Diphysa
+Diospyros virginiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dip</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Diphysa
 Dipladenia (voir Mandevilla)
 Diplazium
 Diplazium pycnocarpon - Diplazium à sores denses ou « Athyrium à sores denses »
@@ -759,46 +1637,119 @@
 Dipsacus sativus - Cardère cultivée ou cardère à foulon
 Dipsacus ×fallax - Cardère trompeuse
 Dipteryx
-Diptychandra
-Dis
-Distichlis
+Diptychandra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Dis</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Distichlis
 Distichlis spicata
 Discolobium
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Do</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dod
-Dodecatheon
-Dodecatheon meadia - Giroselle
-Dol
-Dolichos - fam. Légumineuses
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dod</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Dodecatheon
+Dodecatheon meadia - Giroselle</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Do</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Dol</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Dolichos - fam. Légumineuses
 Dolichos acinaciformis
 Dolichos altissimus
 Dolichos articulatus
@@ -840,43 +1791,82 @@
 Dolichos tuberosus
 Dolichos urens'
 Dolichos vexillatus
-Dolichos virgatus
-Dor
-Doronicum - fam. Astéracées
+Dolichos virgatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Do</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dor</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doronicum - fam. Astéracées
 Doronicum grandiflorum - Doronic à grandes fleurs
 Doronicum plantagineum - Doronic plantain
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dra
-Draba
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Dra</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Draba
 Draba glabella
 Draba ladina (Drave ladine)
 Draba nivalis
@@ -886,21 +1876,123 @@
 Dracocephalum
 Dracocephalum austriacum - Dracocéphale d'Autriche
 Dracunculus
-Dracunculus serpentaria - Dragonne ou Serpentaire
-Dre
-Drepanocladus
+Dracunculus serpentaria - Dragonne ou Serpentaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Dr</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Dre</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Drepanocladus
 Drepanocladus vernicosus - Drépanoclade brillant
 Drepanostachyum - fam. Graminées ou Poacées
 Drepanostachyum falcatum - Bambou
-Drepanostachyum hookerianum
-Dro
-Drococephalum - fam. Lamiacées
+Drepanostachyum hookerianum</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Dr</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Dro</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Drococephalum - fam. Lamiacées
 Drosera - fam. Droséracées
 Drosera intermedia - Droséra intermédiaire
 Drosera longifolia  - Rossolis d'Angleterre
-Drosera rotondifolia - Droséra à feuilles rondes
-Dry
-Dryas - fam. Rosacée
+Drosera rotondifolia - Droséra à feuilles rondes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Dr</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryas - fam. Rosacée
 Dryas drummondii - Dryade de Drummond
 Dryas integrifolia - Dryade à feuilles entières
 Dryas octopetala - Dryade - Chênette
@@ -908,41 +2000,145 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Du</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dubrowska - fam. Graminées ou Poacées - Herbe aromatique de Pologne
-Duc
-Duchesnea - fam. Rosacées
-Duchesnea indica - Fraisier des Indes, Duchesnée
-Dup
-Dupontia
-Dupontia fisheri - Dupontia de Fisher
-Dus
-Dussia
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Dubrowska - fam. Graminées ou Poacées - Herbe aromatique de Pologne</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Du</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Duc</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Duchesnea - fam. Rosacées
+Duchesnea indica - Fraisier des Indes, Duchesnée</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Du</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Dup</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Dupontia
+Dupontia fisheri - Dupontia de Fisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Du</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Dus</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dussia
 Voir aussi Plantes par nom scientifique
  Portail de l’écologie   Portail de la botanique                    </t>
         </is>
